--- a/resources/excelfiles/vwousernameandpasswordcontrolencoded.xlsx
+++ b/resources/excelfiles/vwousernameandpasswordcontrolencoded.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="22">
   <si>
     <t>TestName</t>
   </si>
@@ -20,6 +20,9 @@
     <t>Execute</t>
   </si>
   <si>
+    <t>browser</t>
+  </si>
+  <si>
     <t>Username</t>
   </si>
   <si>
@@ -35,6 +38,9 @@
     <t>yes</t>
   </si>
   <si>
+    <t>chrome</t>
+  </si>
+  <si>
     <t>abcdefghi</t>
   </si>
   <si>
@@ -66,6 +72,9 @@
   </si>
   <si>
     <t>loginCredentialsEdge</t>
+  </si>
+  <si>
+    <t>edge</t>
   </si>
   <si>
     <t>checkUrlDashboardPageEdge</t>
@@ -220,7 +229,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -248,175 +257,208 @@
       <c r="E1" t="s" s="1">
         <v>4</v>
       </c>
+      <c r="F1" t="s" s="1">
+        <v>5</v>
+      </c>
     </row>
     <row r="2" ht="50.0" customHeight="true">
       <c r="A2" t="s" s="0">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E2" t="s" s="0">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="F2" t="s" s="0">
+        <v>11</v>
       </c>
     </row>
     <row r="3" ht="50.0" customHeight="true">
       <c r="A3" t="s" s="0">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D3" t="s" s="0">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E3" t="s" s="0">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="F3" t="s" s="0">
+        <v>11</v>
       </c>
     </row>
     <row r="4" ht="50.0" customHeight="true">
       <c r="A4" t="s" s="0">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D4" t="s" s="0">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E4" t="s" s="0">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="F4" t="s" s="0">
+        <v>11</v>
       </c>
     </row>
     <row r="5" ht="50.0" customHeight="true">
       <c r="A5" t="s" s="0">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B5" t="s" s="3">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C5" t="s" s="0">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D5" t="s" s="0">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E5" t="s" s="0">
-        <v>9</v>
+        <v>16</v>
+      </c>
+      <c r="F5" t="s" s="0">
+        <v>11</v>
       </c>
     </row>
     <row r="6" ht="50.0" customHeight="true">
       <c r="A6" t="s" s="0">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C6" t="s" s="0">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="D6" t="s" s="0">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E6" t="s" s="0">
-        <v>9</v>
+        <v>18</v>
+      </c>
+      <c r="F6" t="s" s="0">
+        <v>11</v>
       </c>
     </row>
     <row r="7" ht="50.0" customHeight="true">
       <c r="A7" t="s" s="0">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C7" t="s" s="0">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="D7" t="s" s="0">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E7" t="s" s="0">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="F7" t="s" s="0">
+        <v>11</v>
       </c>
     </row>
     <row r="8" ht="50.0" customHeight="true">
       <c r="A8" t="s" s="0">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C8" t="s" s="0">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D8" t="s" s="0">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E8" t="s" s="0">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="F8" t="s" s="0">
+        <v>11</v>
       </c>
     </row>
     <row r="9" ht="50.0" customHeight="true">
       <c r="A9" t="s" s="0">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C9" t="s" s="0">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="D9" t="s" s="0">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E9" t="s" s="0">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="F9" t="s" s="0">
+        <v>11</v>
       </c>
     </row>
     <row r="10" ht="50.0" customHeight="true">
       <c r="A10" t="s" s="0">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B10" t="s" s="3">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C10" t="s" s="0">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D10" t="s" s="0">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E10" t="s" s="0">
-        <v>9</v>
+        <v>16</v>
+      </c>
+      <c r="F10" t="s" s="0">
+        <v>11</v>
       </c>
     </row>
     <row r="11" ht="50.0" customHeight="true">
       <c r="A11" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s" s="2">
+        <v>7</v>
+      </c>
+      <c r="C11" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="D11" t="s" s="0">
         <v>18</v>
       </c>
-      <c r="B11" t="s" s="2">
-        <v>6</v>
-      </c>
-      <c r="C11" t="s" s="0">
-        <v>16</v>
-      </c>
-      <c r="D11" t="s" s="0">
-        <v>16</v>
-      </c>
       <c r="E11" t="s" s="0">
-        <v>9</v>
+        <v>18</v>
+      </c>
+      <c r="F11" t="s" s="0">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/resources/excelfiles/vwousernameandpasswordcontrolencoded.xlsx
+++ b/resources/excelfiles/vwousernameandpasswordcontrolencoded.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="18">
   <si>
     <t>TestName</t>
   </si>
@@ -32,7 +32,7 @@
     <t>fname</t>
   </si>
   <si>
-    <t>loginCredentialsChrome</t>
+    <t>loginWithCredentials</t>
   </si>
   <si>
     <t>yes</t>
@@ -44,40 +44,28 @@
     <t>abcdefghi</t>
   </si>
   <si>
-    <t>VGVzdEAxMjM0</t>
+    <t>Test@1234</t>
   </si>
   <si>
     <t>sumit</t>
   </si>
   <si>
-    <t>akas@wuuvo.com</t>
-  </si>
-  <si>
-    <t>akash@wuuvo.com</t>
-  </si>
-  <si>
-    <t>no</t>
-  </si>
-  <si>
-    <t>akas@wuuo.com</t>
-  </si>
-  <si>
-    <t>VGVzdEAxMjM1</t>
-  </si>
-  <si>
-    <t>checkUrlDashboardPageChrome</t>
+    <t>totalMoneySpentCalculation</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
-    <t>loginCredentialsEdge</t>
+    <t>justToTestListenerMethod1</t>
+  </si>
+  <si>
+    <t>justToTestListenerMethod2</t>
+  </si>
+  <si>
+    <t>justToTestRetryListenerOnFailMethod3</t>
   </si>
   <si>
     <t>edge</t>
-  </si>
-  <si>
-    <t>checkUrlDashboardPageEdge</t>
   </si>
 </sst>
 </file>
@@ -283,7 +271,7 @@
     </row>
     <row r="3" ht="50.0" customHeight="true">
       <c r="A3" t="s" s="0">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B3" t="s" s="2">
         <v>7</v>
@@ -292,10 +280,10 @@
         <v>8</v>
       </c>
       <c r="D3" t="s" s="0">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E3" t="s" s="0">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F3" t="s" s="0">
         <v>11</v>
@@ -303,7 +291,7 @@
     </row>
     <row r="4" ht="50.0" customHeight="true">
       <c r="A4" t="s" s="0">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="B4" t="s" s="2">
         <v>7</v>
@@ -315,7 +303,7 @@
         <v>13</v>
       </c>
       <c r="E4" t="s" s="0">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F4" t="s" s="0">
         <v>11</v>
@@ -323,19 +311,19 @@
     </row>
     <row r="5" ht="50.0" customHeight="true">
       <c r="A5" t="s" s="0">
-        <v>6</v>
-      </c>
-      <c r="B5" t="s" s="3">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="B5" t="s" s="2">
+        <v>7</v>
       </c>
       <c r="C5" t="s" s="0">
         <v>8</v>
       </c>
       <c r="D5" t="s" s="0">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E5" t="s" s="0">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F5" t="s" s="0">
         <v>11</v>
@@ -343,7 +331,7 @@
     </row>
     <row r="6" ht="50.0" customHeight="true">
       <c r="A6" t="s" s="0">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B6" t="s" s="2">
         <v>7</v>
@@ -352,10 +340,10 @@
         <v>8</v>
       </c>
       <c r="D6" t="s" s="0">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="E6" t="s" s="0">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="F6" t="s" s="0">
         <v>11</v>
@@ -363,13 +351,13 @@
     </row>
     <row r="7" ht="50.0" customHeight="true">
       <c r="A7" t="s" s="0">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="B7" t="s" s="2">
         <v>7</v>
       </c>
       <c r="C7" t="s" s="0">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D7" t="s" s="0">
         <v>9</v>
@@ -383,19 +371,19 @@
     </row>
     <row r="8" ht="50.0" customHeight="true">
       <c r="A8" t="s" s="0">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="B8" t="s" s="2">
         <v>7</v>
       </c>
       <c r="C8" t="s" s="0">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D8" t="s" s="0">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E8" t="s" s="0">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F8" t="s" s="0">
         <v>11</v>
@@ -403,19 +391,19 @@
     </row>
     <row r="9" ht="50.0" customHeight="true">
       <c r="A9" t="s" s="0">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B9" t="s" s="2">
         <v>7</v>
       </c>
       <c r="C9" t="s" s="0">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D9" t="s" s="0">
         <v>13</v>
       </c>
       <c r="E9" t="s" s="0">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F9" t="s" s="0">
         <v>11</v>
@@ -423,19 +411,19 @@
     </row>
     <row r="10" ht="50.0" customHeight="true">
       <c r="A10" t="s" s="0">
-        <v>19</v>
-      </c>
-      <c r="B10" t="s" s="3">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="B10" t="s" s="2">
+        <v>7</v>
       </c>
       <c r="C10" t="s" s="0">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D10" t="s" s="0">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E10" t="s" s="0">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F10" t="s" s="0">
         <v>11</v>
@@ -443,19 +431,19 @@
     </row>
     <row r="11" ht="50.0" customHeight="true">
       <c r="A11" t="s" s="0">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B11" t="s" s="2">
         <v>7</v>
       </c>
       <c r="C11" t="s" s="0">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D11" t="s" s="0">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="E11" t="s" s="0">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="F11" t="s" s="0">
         <v>11</v>
